--- a/server/templates/excel/Substation.xlsx
+++ b/server/templates/excel/Substation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJs\ChecksheetsApp\server\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A290480B-9EF2-480F-A0FF-6C9579A59B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB6F6AF-AEEB-42A6-A665-B73F78E0668D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Substation" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
   <si>
     <t>#</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Plant:</t>
-  </si>
-  <si>
-    <t>Date of control:</t>
   </si>
   <si>
     <t>Start hour:</t>
@@ -323,6 +320,18 @@
   </si>
   <si>
     <t xml:space="preserve"> {finished_at}</t>
+  </si>
+  <si>
+    <t>{checklist_made_by}</t>
+  </si>
+  <si>
+    <t>{last_revision_approved_by}</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>{inspection_date}</t>
   </si>
 </sst>
 </file>
@@ -1010,6 +1019,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1058,51 +1112,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1466,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z337"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1492,16 +1501,16 @@
       <c r="C1" s="73"/>
       <c r="D1" s="73"/>
       <c r="E1" s="71"/>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="123"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -1525,23 +1534,23 @@
       <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="124" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
+      <c r="A3" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="109"/>
     </row>
     <row r="4" spans="1:13" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
@@ -1565,25 +1574,25 @@
       <c r="M4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="129" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="129" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="127" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="128"/>
+      <c r="A5" s="112" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="113"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="111"/>
     </row>
     <row r="6" spans="1:13" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="69"/>
@@ -1591,15 +1600,15 @@
         <v>9</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="56"/>
       <c r="E6" s="79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="55"/>
       <c r="I6" s="55"/>
@@ -1611,23 +1620,25 @@
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
       <c r="B7" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="23"/>
+        <v>89</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" s="20"/>
       <c r="E7" s="77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="58"/>
       <c r="H7" s="77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -1636,7 +1647,7 @@
     <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57"/>
       <c r="B8" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="20"/>
@@ -1652,16 +1663,16 @@
     </row>
     <row r="9" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="20"/>
       <c r="F9" s="77"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" s="23"/>
       <c r="L9" s="22"/>
@@ -1687,23 +1698,23 @@
       <c r="B11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
+      <c r="C11" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
       <c r="J11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="L11" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M11" s="6"/>
     </row>
@@ -1713,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="99"/>
       <c r="E12" s="99"/>
@@ -1732,7 +1743,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -1743,7 +1754,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M13" s="6"/>
     </row>
@@ -1753,7 +1764,7 @@
         <v>1.2</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -1764,7 +1775,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M14" s="6"/>
     </row>
@@ -1774,7 +1785,7 @@
         <v>1.3</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="80"/>
       <c r="E15" s="80"/>
@@ -1785,7 +1796,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M15" s="6"/>
     </row>
@@ -1795,7 +1806,7 @@
         <v>1.4</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="82"/>
       <c r="E16" s="82"/>
@@ -1806,7 +1817,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M16" s="6"/>
     </row>
@@ -1815,19 +1826,19 @@
       <c r="B17" s="37">
         <v>1.5</v>
       </c>
-      <c r="C17" s="114" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="116"/>
+      <c r="C17" s="129" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M17" s="6"/>
     </row>
@@ -1837,7 +1848,7 @@
         <v>1.6</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -1848,7 +1859,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M18" s="6"/>
     </row>
@@ -1858,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="99"/>
       <c r="E19" s="99"/>
@@ -1876,19 +1887,19 @@
       <c r="B20" s="37">
         <v>2.1</v>
       </c>
-      <c r="C20" s="103" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="105"/>
+      <c r="C20" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
       <c r="L20" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7"/>
     </row>
@@ -1898,7 +1909,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -1909,7 +1920,7 @@
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
       <c r="L21" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M21" s="7"/>
     </row>
@@ -1918,19 +1929,19 @@
       <c r="B22" s="37">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C22" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="105"/>
+      <c r="C22" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M22" s="7"/>
     </row>
@@ -1939,19 +1950,19 @@
       <c r="B23" s="37">
         <v>2.4</v>
       </c>
-      <c r="C23" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="113"/>
+      <c r="C23" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="128"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M23" s="8"/>
     </row>
@@ -1961,7 +1972,7 @@
         <v>2.5</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -1972,7 +1983,7 @@
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
       <c r="L24" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M24" s="8"/>
     </row>
@@ -1982,7 +1993,7 @@
         <v>2.6</v>
       </c>
       <c r="C25" s="84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -1993,7 +2004,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M25" s="8"/>
     </row>
@@ -2003,7 +2014,7 @@
         <v>2.7</v>
       </c>
       <c r="C26" s="84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -2014,7 +2025,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M26" s="8"/>
     </row>
@@ -2024,7 +2035,7 @@
         <v>2.8</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -2035,7 +2046,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M27" s="8"/>
     </row>
@@ -2045,7 +2056,7 @@
         <v>2.9</v>
       </c>
       <c r="C28" s="84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="80"/>
       <c r="E28" s="80"/>
@@ -2056,7 +2067,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M28" s="8"/>
     </row>
@@ -2066,7 +2077,7 @@
         <v>2.1</v>
       </c>
       <c r="C29" s="84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="80"/>
       <c r="E29" s="80"/>
@@ -2077,7 +2088,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M29" s="8"/>
     </row>
@@ -2087,7 +2098,7 @@
         <v>2.11</v>
       </c>
       <c r="C30" s="84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
@@ -2098,19 +2109,19 @@
       <c r="J30" s="101"/>
       <c r="K30" s="101"/>
       <c r="L30" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="37">
         <v>2.12</v>
       </c>
       <c r="C31" s="84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
@@ -2121,7 +2132,7 @@
       <c r="J31" s="101"/>
       <c r="K31" s="101"/>
       <c r="L31" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M31" s="8"/>
     </row>
@@ -2131,7 +2142,7 @@
         <v>2.13</v>
       </c>
       <c r="C32" s="84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="80"/>
       <c r="E32" s="80"/>
@@ -2142,7 +2153,7 @@
       <c r="J32" s="101"/>
       <c r="K32" s="101"/>
       <c r="L32" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M32" s="8"/>
     </row>
@@ -2152,7 +2163,7 @@
         <v>2.14</v>
       </c>
       <c r="C33" s="84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
@@ -2163,7 +2174,7 @@
       <c r="J33" s="101"/>
       <c r="K33" s="101"/>
       <c r="L33" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M33" s="8"/>
     </row>
@@ -2173,7 +2184,7 @@
         <v>2.15</v>
       </c>
       <c r="C34" s="84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="80"/>
       <c r="E34" s="80"/>
@@ -2184,7 +2195,7 @@
       <c r="J34" s="101"/>
       <c r="K34" s="101"/>
       <c r="L34" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M34" s="8"/>
     </row>
@@ -2194,7 +2205,7 @@
         <v>2.16</v>
       </c>
       <c r="C35" s="84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="80"/>
       <c r="E35" s="80"/>
@@ -2205,7 +2216,7 @@
       <c r="J35" s="101"/>
       <c r="K35" s="101"/>
       <c r="L35" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M35" s="8"/>
     </row>
@@ -2215,7 +2226,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="99"/>
       <c r="E36" s="99"/>
@@ -2233,19 +2244,19 @@
       <c r="B37" s="37">
         <v>3.1</v>
       </c>
-      <c r="C37" s="103" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="105"/>
+      <c r="C37" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="120"/>
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
       <c r="L37" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M37" s="7"/>
     </row>
@@ -2255,7 +2266,7 @@
         <v>3.2</v>
       </c>
       <c r="C38" s="84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -2266,7 +2277,7 @@
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
       <c r="L38" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M38" s="7"/>
     </row>
@@ -2275,19 +2286,19 @@
       <c r="B39" s="37">
         <v>3.3</v>
       </c>
-      <c r="C39" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="105"/>
+      <c r="C39" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="120"/>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M39" s="7"/>
     </row>
@@ -2296,19 +2307,19 @@
       <c r="B40" s="37">
         <v>3.4</v>
       </c>
-      <c r="C40" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="113"/>
+      <c r="C40" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="128"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M40" s="8"/>
     </row>
@@ -2318,7 +2329,7 @@
         <v>3.5</v>
       </c>
       <c r="C41" s="85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
@@ -2329,7 +2340,7 @@
       <c r="J41" s="26"/>
       <c r="K41" s="26"/>
       <c r="L41" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M41" s="8"/>
     </row>
@@ -2339,7 +2350,7 @@
         <v>3.6</v>
       </c>
       <c r="C42" s="84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
@@ -2350,7 +2361,7 @@
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M42" s="8"/>
     </row>
@@ -2360,7 +2371,7 @@
         <v>3.7</v>
       </c>
       <c r="C43" s="84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
@@ -2371,7 +2382,7 @@
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
       <c r="L43" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M43" s="8"/>
     </row>
@@ -2381,7 +2392,7 @@
         <v>3.8</v>
       </c>
       <c r="C44" s="84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -2392,7 +2403,7 @@
       <c r="J44" s="19"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M44" s="8"/>
     </row>
@@ -2402,7 +2413,7 @@
         <v>3.9</v>
       </c>
       <c r="C45" s="84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
@@ -2413,7 +2424,7 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M45" s="8"/>
     </row>
@@ -2423,7 +2434,7 @@
         <v>3.1</v>
       </c>
       <c r="C46" s="84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
@@ -2434,7 +2445,7 @@
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
       <c r="L46" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M46" s="8"/>
     </row>
@@ -2444,7 +2455,7 @@
         <v>3.11</v>
       </c>
       <c r="C47" s="84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
@@ -2455,19 +2466,19 @@
       <c r="J47" s="101"/>
       <c r="K47" s="101"/>
       <c r="L47" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M47" s="8"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="37">
         <v>3.12</v>
       </c>
       <c r="C48" s="84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
@@ -2478,7 +2489,7 @@
       <c r="J48" s="101"/>
       <c r="K48" s="101"/>
       <c r="L48" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M48" s="8"/>
     </row>
@@ -2488,7 +2499,7 @@
         <v>3.13</v>
       </c>
       <c r="C49" s="84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
@@ -2499,7 +2510,7 @@
       <c r="J49" s="101"/>
       <c r="K49" s="101"/>
       <c r="L49" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M49" s="8"/>
     </row>
@@ -2509,7 +2520,7 @@
         <v>3.14</v>
       </c>
       <c r="C50" s="84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
@@ -2520,7 +2531,7 @@
       <c r="J50" s="101"/>
       <c r="K50" s="101"/>
       <c r="L50" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M50" s="8"/>
     </row>
@@ -2530,7 +2541,7 @@
         <v>3.15</v>
       </c>
       <c r="C51" s="84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
@@ -2541,7 +2552,7 @@
       <c r="J51" s="101"/>
       <c r="K51" s="101"/>
       <c r="L51" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M51" s="8"/>
     </row>
@@ -2551,7 +2562,7 @@
         <v>3.16</v>
       </c>
       <c r="C52" s="84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
@@ -2562,7 +2573,7 @@
       <c r="J52" s="101"/>
       <c r="K52" s="101"/>
       <c r="L52" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M52" s="8"/>
     </row>
@@ -2572,7 +2583,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" s="99"/>
       <c r="E53" s="99"/>
@@ -2591,7 +2602,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C54" s="84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
@@ -2602,7 +2613,7 @@
       <c r="J54" s="101"/>
       <c r="K54" s="101"/>
       <c r="L54" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M54" s="8"/>
     </row>
@@ -2612,7 +2623,7 @@
         <v>4.2</v>
       </c>
       <c r="C55" s="84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
@@ -2623,7 +2634,7 @@
       <c r="J55" s="101"/>
       <c r="K55" s="101"/>
       <c r="L55" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M55" s="8"/>
     </row>
@@ -2633,7 +2644,7 @@
         <v>4.3</v>
       </c>
       <c r="C56" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D56" s="80"/>
       <c r="E56" s="80"/>
@@ -2644,7 +2655,7 @@
       <c r="J56" s="101"/>
       <c r="K56" s="101"/>
       <c r="L56" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M56" s="8"/>
     </row>
@@ -2654,7 +2665,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C57" s="84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D57" s="80"/>
       <c r="E57" s="80"/>
@@ -2665,7 +2676,7 @@
       <c r="J57" s="101"/>
       <c r="K57" s="101"/>
       <c r="L57" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M57" s="8"/>
     </row>
@@ -2675,7 +2686,7 @@
         <v>4.5</v>
       </c>
       <c r="C58" s="84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D58" s="80"/>
       <c r="E58" s="80"/>
@@ -2686,7 +2697,7 @@
       <c r="J58" s="101"/>
       <c r="K58" s="101"/>
       <c r="L58" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M58" s="8"/>
     </row>
@@ -2696,7 +2707,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C59" s="84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D59" s="80"/>
       <c r="E59" s="80"/>
@@ -2707,7 +2718,7 @@
       <c r="J59" s="101"/>
       <c r="K59" s="101"/>
       <c r="L59" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M59" s="8"/>
     </row>
@@ -2717,7 +2728,7 @@
         <v>4.7</v>
       </c>
       <c r="C60" s="84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D60" s="80"/>
       <c r="E60" s="80"/>
@@ -2728,7 +2739,7 @@
       <c r="J60" s="101"/>
       <c r="K60" s="101"/>
       <c r="L60" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M60" s="8"/>
     </row>
@@ -2738,7 +2749,7 @@
         <v>4.8</v>
       </c>
       <c r="C61" s="84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D61" s="80"/>
       <c r="E61" s="80"/>
@@ -2749,7 +2760,7 @@
       <c r="J61" s="101"/>
       <c r="K61" s="101"/>
       <c r="L61" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M61" s="8"/>
     </row>
@@ -2759,7 +2770,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D62" s="99"/>
       <c r="E62" s="99"/>
@@ -2778,7 +2789,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C63" s="84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D63" s="80"/>
       <c r="E63" s="80"/>
@@ -2789,7 +2800,7 @@
       <c r="J63" s="101"/>
       <c r="K63" s="101"/>
       <c r="L63" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M63" s="8"/>
     </row>
@@ -2799,7 +2810,7 @@
         <v>5.2</v>
       </c>
       <c r="C64" s="84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D64" s="80"/>
       <c r="E64" s="80"/>
@@ -2810,7 +2821,7 @@
       <c r="J64" s="101"/>
       <c r="K64" s="101"/>
       <c r="L64" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M64" s="8"/>
     </row>
@@ -2820,7 +2831,7 @@
         <v>5.3</v>
       </c>
       <c r="C65" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D65" s="80"/>
       <c r="E65" s="80"/>
@@ -2831,7 +2842,7 @@
       <c r="J65" s="101"/>
       <c r="K65" s="101"/>
       <c r="L65" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M65" s="8"/>
     </row>
@@ -2841,7 +2852,7 @@
         <v>5.4</v>
       </c>
       <c r="C66" s="84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D66" s="80"/>
       <c r="E66" s="80"/>
@@ -2852,7 +2863,7 @@
       <c r="J66" s="101"/>
       <c r="K66" s="101"/>
       <c r="L66" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M66" s="8"/>
     </row>
@@ -2862,7 +2873,7 @@
         <v>5.5</v>
       </c>
       <c r="C67" s="84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D67" s="80"/>
       <c r="E67" s="80"/>
@@ -2873,7 +2884,7 @@
       <c r="J67" s="101"/>
       <c r="K67" s="101"/>
       <c r="L67" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M67" s="8"/>
     </row>
@@ -2883,7 +2894,7 @@
         <v>5.6</v>
       </c>
       <c r="C68" s="84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D68" s="80"/>
       <c r="E68" s="80"/>
@@ -2894,7 +2905,7 @@
       <c r="J68" s="101"/>
       <c r="K68" s="101"/>
       <c r="L68" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M68" s="8"/>
     </row>
@@ -2904,7 +2915,7 @@
         <v>5.7</v>
       </c>
       <c r="C69" s="84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D69" s="80"/>
       <c r="E69" s="80"/>
@@ -2915,7 +2926,7 @@
       <c r="J69" s="101"/>
       <c r="K69" s="101"/>
       <c r="L69" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M69" s="8"/>
     </row>
@@ -2925,7 +2936,7 @@
         <v>5.8</v>
       </c>
       <c r="C70" s="84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D70" s="80"/>
       <c r="E70" s="80"/>
@@ -2936,7 +2947,7 @@
       <c r="J70" s="101"/>
       <c r="K70" s="101"/>
       <c r="L70" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M70" s="8"/>
     </row>
@@ -2946,7 +2957,7 @@
         <v>6</v>
       </c>
       <c r="C71" s="98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D71" s="99"/>
       <c r="E71" s="99"/>
@@ -2965,7 +2976,7 @@
         <v>6.1</v>
       </c>
       <c r="C72" s="84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" s="80"/>
       <c r="E72" s="80"/>
@@ -2976,7 +2987,7 @@
       <c r="J72" s="19"/>
       <c r="K72" s="19"/>
       <c r="L72" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M72" s="8"/>
     </row>
@@ -2986,7 +2997,7 @@
         <v>6.2</v>
       </c>
       <c r="C73" s="84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D73" s="80"/>
       <c r="E73" s="80"/>
@@ -2997,7 +3008,7 @@
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
       <c r="L73" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M73" s="8"/>
     </row>
@@ -3007,7 +3018,7 @@
         <v>6.3</v>
       </c>
       <c r="C74" s="84" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D74" s="80"/>
       <c r="E74" s="80"/>
@@ -3018,7 +3029,7 @@
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
       <c r="L74" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M74" s="8"/>
     </row>
@@ -3028,7 +3039,7 @@
         <v>6.4</v>
       </c>
       <c r="C75" s="84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D75" s="80"/>
       <c r="E75" s="80"/>
@@ -3039,7 +3050,7 @@
       <c r="J75" s="19"/>
       <c r="K75" s="19"/>
       <c r="L75" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M75" s="8"/>
     </row>
@@ -3049,7 +3060,7 @@
         <v>6.5</v>
       </c>
       <c r="C76" s="84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D76" s="80"/>
       <c r="E76" s="80"/>
@@ -3060,7 +3071,7 @@
       <c r="J76" s="19"/>
       <c r="K76" s="19"/>
       <c r="L76" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M76" s="8"/>
     </row>
@@ -3070,7 +3081,7 @@
         <v>6.6</v>
       </c>
       <c r="C77" s="84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D77" s="80"/>
       <c r="E77" s="80"/>
@@ -3081,7 +3092,7 @@
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
       <c r="L77" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M77" s="8"/>
     </row>
@@ -3091,7 +3102,7 @@
         <v>6.7</v>
       </c>
       <c r="C78" s="84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D78" s="80"/>
       <c r="E78" s="80"/>
@@ -3102,7 +3113,7 @@
       <c r="J78" s="19"/>
       <c r="K78" s="19"/>
       <c r="L78" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M78" s="8"/>
     </row>
@@ -3111,19 +3122,19 @@
       <c r="B79" s="37">
         <v>6.8</v>
       </c>
-      <c r="C79" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="D79" s="118"/>
-      <c r="E79" s="118"/>
-      <c r="F79" s="118"/>
-      <c r="G79" s="118"/>
-      <c r="H79" s="118"/>
-      <c r="I79" s="119"/>
+      <c r="C79" s="132" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="133"/>
+      <c r="E79" s="133"/>
+      <c r="F79" s="133"/>
+      <c r="G79" s="133"/>
+      <c r="H79" s="133"/>
+      <c r="I79" s="134"/>
       <c r="J79" s="101"/>
       <c r="K79" s="101"/>
       <c r="L79" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M79" s="8"/>
     </row>
@@ -3133,7 +3144,7 @@
         <v>6.9</v>
       </c>
       <c r="C80" s="84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D80" s="80"/>
       <c r="E80" s="80"/>
@@ -3144,7 +3155,7 @@
       <c r="J80" s="101"/>
       <c r="K80" s="101"/>
       <c r="L80" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M80" s="8"/>
     </row>
@@ -3154,7 +3165,7 @@
         <v>6.1</v>
       </c>
       <c r="C81" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D81" s="80"/>
       <c r="E81" s="80"/>
@@ -3165,7 +3176,7 @@
       <c r="J81" s="101"/>
       <c r="K81" s="101"/>
       <c r="L81" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M81" s="8"/>
     </row>
@@ -3175,7 +3186,7 @@
         <v>6.11</v>
       </c>
       <c r="C82" s="84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D82" s="80"/>
       <c r="E82" s="80"/>
@@ -3186,7 +3197,7 @@
       <c r="J82" s="101"/>
       <c r="K82" s="101"/>
       <c r="L82" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M82" s="8"/>
     </row>
@@ -3196,7 +3207,7 @@
         <v>6.12</v>
       </c>
       <c r="C83" s="84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D83" s="80"/>
       <c r="E83" s="80"/>
@@ -3207,7 +3218,7 @@
       <c r="J83" s="101"/>
       <c r="K83" s="101"/>
       <c r="L83" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M83" s="8"/>
     </row>
@@ -3217,7 +3228,7 @@
         <v>6.13</v>
       </c>
       <c r="C84" s="84" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D84" s="80"/>
       <c r="E84" s="80"/>
@@ -3228,7 +3239,7 @@
       <c r="J84" s="101"/>
       <c r="K84" s="101"/>
       <c r="L84" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M84" s="8"/>
     </row>
@@ -3250,14 +3261,14 @@
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M86" s="8"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
@@ -3273,11 +3284,11 @@
     </row>
     <row r="88" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
-      <c r="B88" s="107"/>
-      <c r="C88" s="107"/>
-      <c r="D88" s="107"/>
-      <c r="E88" s="107"/>
-      <c r="F88" s="107"/>
+      <c r="B88" s="122"/>
+      <c r="C88" s="122"/>
+      <c r="D88" s="122"/>
+      <c r="E88" s="122"/>
+      <c r="F88" s="122"/>
       <c r="G88" s="42"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
@@ -3288,11 +3299,11 @@
     </row>
     <row r="89" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
-      <c r="B89" s="107"/>
-      <c r="C89" s="107"/>
-      <c r="D89" s="107"/>
-      <c r="E89" s="107"/>
-      <c r="F89" s="107"/>
+      <c r="B89" s="122"/>
+      <c r="C89" s="122"/>
+      <c r="D89" s="122"/>
+      <c r="E89" s="122"/>
+      <c r="F89" s="122"/>
       <c r="G89" s="42"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
@@ -3306,7 +3317,7 @@
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E90" s="18"/>
       <c r="F90" s="10"/>
@@ -3315,24 +3326,24 @@
       <c r="I90" s="38"/>
       <c r="J90" s="38"/>
       <c r="K90" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L90" s="38"/>
       <c r="M90" s="8"/>
     </row>
     <row r="91" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
-      <c r="B91" s="106" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="106"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="106"/>
-      <c r="F91" s="106"/>
+      <c r="B91" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="121"/>
+      <c r="D91" s="121"/>
+      <c r="E91" s="121"/>
+      <c r="F91" s="121"/>
       <c r="G91" s="39"/>
       <c r="H91" s="29"/>
       <c r="I91" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J91" s="29"/>
       <c r="K91" s="29"/>
@@ -3356,7 +3367,7 @@
     </row>
     <row r="93" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B93" s="64"/>
       <c r="C93" s="67"/>
@@ -3370,7 +3381,7 @@
       <c r="K93" s="64"/>
       <c r="L93" s="64"/>
       <c r="M93" s="90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3957,13 +3968,6 @@
     <row r="337" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:E5"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="B91:F91"/>
     <mergeCell ref="B88:F88"/>
@@ -3976,6 +3980,13 @@
     <mergeCell ref="C39:I39"/>
     <mergeCell ref="C40:I40"/>
     <mergeCell ref="C79:I79"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations xWindow="656" yWindow="321" count="6">
@@ -4001,6 +4012,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008718130C2962994C90036D787BFA6B4C" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15183c27e6178b658cfb250166ea54db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7165ecc1-11a1-4a26-a452-208ffd706532" xmlns:ns3="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e37365f111de1e71a8bd4cd3815cdbf" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4307,15 +4327,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4343,6 +4354,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27F16EBF-1ACA-4685-B1B9-406FFCA5AF3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FBEA072-9249-4A4F-B653-AC73C55714FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4358,14 +4377,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27F16EBF-1ACA-4685-B1B9-406FFCA5AF3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
